--- a/biology/Zoologie/Bruhathkayosaurus/Bruhathkayosaurus.xlsx
+++ b/biology/Zoologie/Bruhathkayosaurus/Bruhathkayosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruhathkayosaurus matleyi
 Bruhathkayosaurus est un genre de dinosaures sauropodes de la famille des Titanosauridae. 
@@ -514,15 +526,17 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans un article de juin 2001, Mickey Mortimer a estimé que Bruhathkayosaurus aurait pu atteindre 44 m de longueur et peser de 175 à 220 tonnes, mais dans des publications ultérieures, il s'est rétracté, réduisant ainsi l'estimation de la longueur du Bruhathkayosaurus à 28–34 m sur la base de titanosaures plus complets (Saltasaurus, Opisthocoelicaudia et Rapetosaurus), et a refusé de fournir une nouvelle estimation de poids, décrivant les anciennes estimations de poids comme inexactes[1],[2],[3].
-Il a comparé la taille des restes retrouvés de Bruhathkayosaurus matleyi avec ceux d'un autre Titanosaure géant, Argentinosaurus huinculensis (28 à 31 m de long, 80 à 100 tonnes)[4],[5]. Le tibia de Bruhathkayosaurus mesure 2 m et le morceau d'humérus retrouvé laisse penser que l'humérus entier aurait mesuré 2,34 m. D'après ces calculs, on peut raisonnablement estimer que Bruhathkayosaurus était environ 30 % plus grand  que Argentinosaurus. Ainsi, Mickey Mortimer a finalement estimé que Bruhathkayosaurus ne mesurait pas plus de 34 m de long mais sans donner de masse qu'il pouvait considérer comme exacte[1],[2],[3].
-Par contre, en 2020, Molina-Perez et Larramendi ont suggéré que le tibia de 2 m de long est probablement un péroné et ont estimé la taille de l'animal (s'il existait vraiment) à 37 m et 95 tonnes[6].
-Les seuls restes connus de Bruhathkayosaurus ont été perdus, de sorte que la validité du genre et les estimations de taille sont discutables[7].
-Il est considéré comme nomen dubium depuis 2004, confirmé en 2007[8] :
-P. Upchurch et al. 2004[9],[10]
-P. M. Galton and K. Ayyasami 2017[7],[11]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dans un article de juin 2001, Mickey Mortimer a estimé que Bruhathkayosaurus aurait pu atteindre 44 m de longueur et peser de 175 à 220 tonnes, mais dans des publications ultérieures, il s'est rétracté, réduisant ainsi l'estimation de la longueur du Bruhathkayosaurus à 28–34 m sur la base de titanosaures plus complets (Saltasaurus, Opisthocoelicaudia et Rapetosaurus), et a refusé de fournir une nouvelle estimation de poids, décrivant les anciennes estimations de poids comme inexactes.
+Il a comparé la taille des restes retrouvés de Bruhathkayosaurus matleyi avec ceux d'un autre Titanosaure géant, Argentinosaurus huinculensis (28 à 31 m de long, 80 à 100 tonnes),. Le tibia de Bruhathkayosaurus mesure 2 m et le morceau d'humérus retrouvé laisse penser que l'humérus entier aurait mesuré 2,34 m. D'après ces calculs, on peut raisonnablement estimer que Bruhathkayosaurus était environ 30 % plus grand  que Argentinosaurus. Ainsi, Mickey Mortimer a finalement estimé que Bruhathkayosaurus ne mesurait pas plus de 34 m de long mais sans donner de masse qu'il pouvait considérer comme exacte.
+Par contre, en 2020, Molina-Perez et Larramendi ont suggéré que le tibia de 2 m de long est probablement un péroné et ont estimé la taille de l'animal (s'il existait vraiment) à 37 m et 95 tonnes.
+Les seuls restes connus de Bruhathkayosaurus ont été perdus, de sorte que la validité du genre et les estimations de taille sont discutables.
+Il est considéré comme nomen dubium depuis 2004, confirmé en 2007 :
+P. Upchurch et al. 2004,
+P. M. Galton and K. Ayyasami 2017,</t>
         </is>
       </c>
     </row>
